--- a/Tools/本地数据表/Sys_Audio.xlsx
+++ b/Tools/本地数据表/Sys_Audio.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24204"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YouYouTools\本地数据表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E62621-666C-43FE-9FC9-102143BD4BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-840" yWindow="2190" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-840" yWindow="2190" windowWidth="21600" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,29 +109,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event://BackGround/Audio_Bg_LogOn</t>
-  </si>
-  <si>
-    <t>event://BackGround/Audio_Bg_LogOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event://BackGround/Audio_Bg_HuPaoCun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event://BackGround/Audio_Bg_HangZhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event://BackGround/Audio_Bg_XueLangHu</t>
+    <t>event:/BackGround/Audio_Bg_LogOn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -271,7 +250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -448,19 +427,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -548,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -565,7 +544,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -582,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>0</v>
